--- a/Code/Results/Cases/Case_1_130/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_130/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.95443538768103</v>
+        <v>26.67882461893246</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.66195468585098</v>
+        <v>9.339034718821546</v>
       </c>
       <c r="E2">
-        <v>19.78852687599241</v>
+        <v>10.81369437765513</v>
       </c>
       <c r="F2">
-        <v>57.7739098567859</v>
+        <v>62.72601528416051</v>
       </c>
       <c r="G2">
-        <v>2.038773792672329</v>
+        <v>3.805974943425642</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.762430010871469</v>
+        <v>8.32751604154571</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.00848723596087</v>
+        <v>18.85716188208018</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.0517633567617</v>
+        <v>20.96866967226643</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.39545845321473</v>
+        <v>26.43006989693861</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.48068208358512</v>
+        <v>9.011715909547659</v>
       </c>
       <c r="E3">
-        <v>18.29352119918421</v>
+        <v>10.1469518066817</v>
       </c>
       <c r="F3">
-        <v>54.70467200687546</v>
+        <v>62.41385843880992</v>
       </c>
       <c r="G3">
-        <v>2.064303071958169</v>
+        <v>3.813780529659272</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.22396651232229</v>
+        <v>8.157976105173558</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.75232517048901</v>
+        <v>18.66440368713422</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.46748283873121</v>
+        <v>21.06179260090708</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.42575327797106</v>
+        <v>26.28393072089948</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.73595373447711</v>
+        <v>8.808833168457578</v>
       </c>
       <c r="E4">
-        <v>17.34861556731022</v>
+        <v>9.731616932367251</v>
       </c>
       <c r="F4">
-        <v>52.8634907144796</v>
+        <v>62.24310805665611</v>
       </c>
       <c r="G4">
-        <v>2.079958411565908</v>
+        <v>3.818806386003851</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.888029168637237</v>
+        <v>8.051036646518803</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.00038331611221</v>
+        <v>18.55079640002241</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.7212041825391</v>
+        <v>21.12116226465107</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.02734177530887</v>
+        <v>26.22608913408453</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.42695584235118</v>
+        <v>8.725819778496342</v>
       </c>
       <c r="E5">
-        <v>16.95603782067131</v>
+        <v>9.589939928495159</v>
       </c>
       <c r="F5">
-        <v>52.12316418032004</v>
+        <v>62.17879871260058</v>
       </c>
       <c r="G5">
-        <v>2.086353771242464</v>
+        <v>3.820913441112234</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.749596944040494</v>
+        <v>8.006768386060555</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.69147529896942</v>
+        <v>18.50573504567653</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.82448767427283</v>
+        <v>21.14591030606808</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.96098982607728</v>
+        <v>26.21658940159335</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.37529743785835</v>
+        <v>8.712019480010055</v>
       </c>
       <c r="E6">
-        <v>16.89037716518061</v>
+        <v>9.566266619117556</v>
       </c>
       <c r="F6">
-        <v>52.00081619505556</v>
+        <v>62.16843888463188</v>
       </c>
       <c r="G6">
-        <v>2.087417201704412</v>
+        <v>3.82126688802735</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.726513056782069</v>
+        <v>7.999376780320429</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.64002787465706</v>
+        <v>18.4983283451065</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.84163843086022</v>
+        <v>21.15005328064028</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.42039333038988</v>
+        <v>26.28314365340444</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.73180956770425</v>
+        <v>8.807714789446374</v>
       </c>
       <c r="E7">
-        <v>17.34335246182946</v>
+        <v>9.729716289842777</v>
       </c>
       <c r="F7">
-        <v>52.85346697514692</v>
+        <v>62.24221939735099</v>
       </c>
       <c r="G7">
-        <v>2.080044573353967</v>
+        <v>3.818834563237241</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.886168654843422</v>
+        <v>8.050442387460691</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.99622751109363</v>
+        <v>18.55018363626053</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.72259721208439</v>
+        <v>21.12149377622137</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.41936825736335</v>
+        <v>26.59171723479226</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.25826629150761</v>
+        <v>9.226653509386882</v>
       </c>
       <c r="E8">
-        <v>19.27815511399423</v>
+        <v>10.58865028963367</v>
       </c>
       <c r="F8">
-        <v>56.70594047953189</v>
+        <v>62.61405337404843</v>
       </c>
       <c r="G8">
-        <v>2.047594002721188</v>
+        <v>3.80861811514685</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.577731873886998</v>
+        <v>8.269662882051973</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.54677605473559</v>
+        <v>18.78973893460699</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.19560150277352</v>
+        <v>21.00032553572586</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.33432780687593</v>
+        <v>27.24671316856629</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.13360198065041</v>
+        <v>10.02733236418452</v>
       </c>
       <c r="E9">
-        <v>22.90100669120831</v>
+        <v>12.12274626110275</v>
       </c>
       <c r="F9">
-        <v>64.67566068763195</v>
+        <v>63.5081849059318</v>
       </c>
       <c r="G9">
-        <v>1.982624248337068</v>
+        <v>3.790418456540242</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.90479752772439</v>
+        <v>8.675990751000469</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.0307516507536</v>
+        <v>19.29525599399884</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.13465724626354</v>
+        <v>20.77995346739295</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.44384515024004</v>
+        <v>27.75486008365623</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>19.2422505474288</v>
+        <v>10.59601620232753</v>
       </c>
       <c r="E10">
-        <v>25.53944171044508</v>
+        <v>13.13689848105807</v>
       </c>
       <c r="F10">
-        <v>70.98031878212426</v>
+        <v>64.26380895169179</v>
       </c>
       <c r="G10">
-        <v>1.931857632550421</v>
+        <v>3.778143841300367</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.88952475342907</v>
+        <v>8.958900769339229</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.5622259918327</v>
+        <v>19.68574797920347</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.31037673297202</v>
+        <v>20.62833688780823</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.86527358782171</v>
+        <v>27.99108857657904</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>20.22415533742811</v>
+        <v>10.84925485393607</v>
       </c>
       <c r="E11">
-        <v>26.76281280986097</v>
+        <v>13.57384753372484</v>
       </c>
       <c r="F11">
-        <v>74.16609546027497</v>
+        <v>64.62843359293969</v>
       </c>
       <c r="G11">
-        <v>1.907341280494357</v>
+        <v>3.77279318462552</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.34982840973649</v>
+        <v>9.083977006850514</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.72434210454129</v>
+        <v>19.86693168091395</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.91645255672117</v>
+        <v>20.56154941862882</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.40738066728414</v>
+        <v>28.08120311697694</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>20.60225583361345</v>
+        <v>10.94427813529611</v>
       </c>
       <c r="E12">
-        <v>27.23303009424015</v>
+        <v>13.73581326783227</v>
       </c>
       <c r="F12">
-        <v>75.40168895729559</v>
+        <v>64.76945205565291</v>
       </c>
       <c r="G12">
-        <v>1.897755258837531</v>
+        <v>3.770800175636073</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.52726787482509</v>
+        <v>9.130801579346032</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>26.16880303124561</v>
+        <v>19.93599910554344</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.76342415923134</v>
+        <v>20.53656902484551</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.29039805070438</v>
+        <v>28.06176709428535</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>20.52048368971529</v>
+        <v>10.92385327077542</v>
       </c>
       <c r="E13">
-        <v>27.13137598625309</v>
+        <v>13.70108640264661</v>
       </c>
       <c r="F13">
-        <v>75.1340916989854</v>
+        <v>64.73895134832723</v>
       </c>
       <c r="G13">
-        <v>1.899835237155</v>
+        <v>3.771227936289023</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.4888853794412</v>
+        <v>9.120741322488104</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>26.07282567394319</v>
+        <v>19.92110471635336</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.7965759860392</v>
+        <v>20.54193524200424</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.90977520098811</v>
+        <v>27.99848952603993</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>20.2551141939511</v>
+        <v>10.85709043193612</v>
       </c>
       <c r="E14">
-        <v>26.80133207380812</v>
+        <v>13.5872425759343</v>
       </c>
       <c r="F14">
-        <v>74.26709593690312</v>
+        <v>64.63997665436847</v>
       </c>
       <c r="G14">
-        <v>1.906559399069335</v>
+        <v>3.7726285558755</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.36435369201286</v>
+        <v>9.087840196587072</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.76079923649274</v>
+        <v>19.87260504297178</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.90394819186128</v>
+        <v>20.55948806213614</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.67723893292361</v>
+        <v>27.95981406952948</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>20.09349620382899</v>
+        <v>10.81608018946176</v>
       </c>
       <c r="E15">
-        <v>26.60021031060709</v>
+        <v>13.51705483610121</v>
       </c>
       <c r="F15">
-        <v>73.7401802901332</v>
+        <v>64.57973315557265</v>
       </c>
       <c r="G15">
-        <v>1.910635184427507</v>
+        <v>3.77349078474767</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.28853302452093</v>
+        <v>9.067616582372548</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>25.57035216693372</v>
+        <v>19.84295554294293</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.96917339685035</v>
+        <v>20.57028001414993</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.35130764412575</v>
+        <v>27.73951812429666</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.17876743473596</v>
+        <v>10.57934887592401</v>
       </c>
       <c r="E16">
-        <v>25.4602341261827</v>
+        <v>13.10785279466644</v>
       </c>
       <c r="F16">
-        <v>70.77562517509844</v>
+        <v>64.24039515734636</v>
       </c>
       <c r="G16">
-        <v>1.933423735073787</v>
+        <v>3.778498180159712</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.85979438383022</v>
+        <v>8.950652272974672</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.48671130044512</v>
+        <v>19.67397405212906</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.33565159016838</v>
+        <v>20.63274525398418</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.54134141614177</v>
+        <v>27.60562329827285</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>18.62520648932203</v>
+        <v>10.43265798456819</v>
       </c>
       <c r="E17">
-        <v>24.76897050459453</v>
+        <v>12.85057927697322</v>
       </c>
       <c r="F17">
-        <v>69.0831620167414</v>
+        <v>64.03753110768179</v>
       </c>
       <c r="G17">
-        <v>1.946981391032954</v>
+        <v>3.781629513144675</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.60073618409085</v>
+        <v>8.877957473028845</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.82634267328688</v>
+        <v>19.57118027600548</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.55493438535758</v>
+        <v>20.67162251132657</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.07589624634545</v>
+        <v>27.52909193994433</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.30871328729832</v>
+        <v>10.34777603717381</v>
       </c>
       <c r="E18">
-        <v>24.37327024406955</v>
+        <v>12.70030547092789</v>
       </c>
       <c r="F18">
-        <v>68.13550648297368</v>
+        <v>63.92281917104638</v>
       </c>
       <c r="G18">
-        <v>1.954653067688014</v>
+        <v>3.783452537538243</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.45278839932506</v>
+        <v>8.835805528742014</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.44728527403257</v>
+        <v>19.51239307415565</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.67936203639947</v>
+        <v>20.69418942700968</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.91830877381085</v>
+        <v>27.50326451186872</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.20180723640284</v>
+        <v>10.31895185776544</v>
       </c>
       <c r="E19">
-        <v>24.23953059905147</v>
+        <v>12.64903057809555</v>
       </c>
       <c r="F19">
-        <v>67.8168303745783</v>
+        <v>63.88431978206675</v>
       </c>
       <c r="G19">
-        <v>1.957231248819429</v>
+        <v>3.78407356544274</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.40284458139075</v>
+        <v>8.821475826249223</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.31900491127448</v>
+        <v>19.49254823574639</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.72122766743774</v>
+        <v>20.70186563794232</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.62750262487506</v>
+        <v>27.61982730601824</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18.68391926552266</v>
+        <v>10.44832685292966</v>
       </c>
       <c r="E20">
-        <v>24.84233875768858</v>
+        <v>12.87820413375111</v>
       </c>
       <c r="F20">
-        <v>69.25963683872554</v>
+        <v>64.05892285210292</v>
       </c>
       <c r="G20">
-        <v>1.945551815836712</v>
+        <v>3.78129390672314</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.62819608300833</v>
+        <v>8.885731266539215</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.89654316813404</v>
+        <v>19.58208834725216</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.53177401494762</v>
+        <v>20.66746269183955</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.02144004747941</v>
+        <v>28.01705832501455</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>20.33285880784123</v>
+        <v>10.87672462818398</v>
       </c>
       <c r="E21">
-        <v>26.89804845633381</v>
+        <v>13.62077608958651</v>
       </c>
       <c r="F21">
-        <v>74.52086740937779</v>
+        <v>64.66896856328864</v>
       </c>
       <c r="G21">
-        <v>1.904593539352877</v>
+        <v>3.772216262609769</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.40083274710043</v>
+        <v>9.097518824468111</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.85230065674174</v>
+        <v>19.88683859065893</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.872526287112</v>
+        <v>20.55432397212291</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.6108057725564</v>
+        <v>28.28048599202808</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>21.44962194227839</v>
+        <v>11.15158717344568</v>
       </c>
       <c r="E22">
-        <v>28.28513495593534</v>
+        <v>14.08571092005673</v>
       </c>
       <c r="F22">
-        <v>78.18555363890749</v>
+        <v>65.08479034446918</v>
       </c>
       <c r="G22">
-        <v>1.875982419619687</v>
+        <v>3.766476662024511</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.92521054861396</v>
+        <v>9.232784579693423</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>27.15848968346861</v>
+        <v>20.08865010889969</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.4182882726343</v>
+        <v>20.48218990408585</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.75895180872548</v>
+        <v>28.13956365318332</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>20.84862691375911</v>
+        <v>11.00538265773428</v>
       </c>
       <c r="E23">
-        <v>27.53917022324783</v>
+        <v>13.83942701862163</v>
       </c>
       <c r="F23">
-        <v>76.20911317101114</v>
+        <v>64.86131346540776</v>
       </c>
       <c r="G23">
-        <v>1.891465908554411</v>
+        <v>3.7695224384621</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.64293320119921</v>
+        <v>9.16088457900438</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26.45747768489954</v>
+        <v>19.98071551658371</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.66336524428641</v>
+        <v>20.5205248698728</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.58854866831135</v>
+        <v>27.61340427794618</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>18.65736995635232</v>
+        <v>10.44124465579708</v>
       </c>
       <c r="E24">
-        <v>24.80916387385442</v>
+        <v>12.86572229957634</v>
       </c>
       <c r="F24">
-        <v>69.17981112166304</v>
+        <v>64.04924566794786</v>
       </c>
       <c r="G24">
-        <v>1.946198502543652</v>
+        <v>3.781445563406949</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.61577847761249</v>
+        <v>8.882217850461229</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.86480386237356</v>
+        <v>19.57715583768384</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.54224985072805</v>
+        <v>20.66934267360653</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.22397261296617</v>
+        <v>27.06452980080271</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.36251505804625</v>
+        <v>9.813713248835775</v>
       </c>
       <c r="E25">
-        <v>21.93229650036828</v>
+        <v>11.72759188349091</v>
       </c>
       <c r="F25">
-        <v>62.46230091968344</v>
+        <v>63.24879787576722</v>
       </c>
       <c r="G25">
-        <v>2.000534663089249</v>
+        <v>3.795147770689703</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.54664661065993</v>
+        <v>8.568726087353804</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.09382012440444</v>
+        <v>19.15494558358967</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.42708079252821</v>
+        <v>20.83774690282723</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_130/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_130/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.67882461893246</v>
+        <v>25.95443538768103</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.339034718821546</v>
+        <v>14.66195468585103</v>
       </c>
       <c r="E2">
-        <v>10.81369437765513</v>
+        <v>19.78852687599263</v>
       </c>
       <c r="F2">
-        <v>62.72601528416051</v>
+        <v>57.77390985678582</v>
       </c>
       <c r="G2">
-        <v>3.805974943425642</v>
+        <v>2.03877379267219</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.32751604154571</v>
+        <v>9.76243001087156</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.85716188208018</v>
+        <v>19.00848723596093</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.96866967226643</v>
+        <v>13.05176335676157</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.43006989693861</v>
+        <v>24.39545845321475</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.011715909547659</v>
+        <v>13.48068208358503</v>
       </c>
       <c r="E3">
-        <v>10.1469518066817</v>
+        <v>18.29352119918418</v>
       </c>
       <c r="F3">
-        <v>62.41385843880992</v>
+        <v>54.7046720068754</v>
       </c>
       <c r="G3">
-        <v>3.813780529659272</v>
+        <v>2.064303071958304</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.157976105173558</v>
+        <v>9.223966512322297</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.66440368713422</v>
+        <v>17.75232517048902</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.06179260090708</v>
+        <v>13.46748283873124</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.28393072089948</v>
+        <v>23.42575327797108</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.808833168457578</v>
+        <v>12.73595373447722</v>
       </c>
       <c r="E4">
-        <v>9.731616932367251</v>
+        <v>17.34861556731036</v>
       </c>
       <c r="F4">
-        <v>62.24310805665611</v>
+        <v>52.86349071447957</v>
       </c>
       <c r="G4">
-        <v>3.818806386003851</v>
+        <v>2.079958411565902</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.051036646518803</v>
+        <v>8.888029168637336</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>18.55079640002241</v>
+        <v>17.00038331611218</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.12116226465107</v>
+        <v>13.72120418253906</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.22608913408453</v>
+        <v>23.02734177530882</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.725819778496342</v>
+        <v>12.42695584235117</v>
       </c>
       <c r="E5">
-        <v>9.589939928495159</v>
+        <v>16.95603782067141</v>
       </c>
       <c r="F5">
-        <v>62.17879871260058</v>
+        <v>52.1231641803199</v>
       </c>
       <c r="G5">
-        <v>3.820913441112234</v>
+        <v>2.086353771242343</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.006768386060555</v>
+        <v>8.74959694404062</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>18.50573504567653</v>
+        <v>16.6914752989694</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.14591030606808</v>
+        <v>13.82448767427279</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.21658940159335</v>
+        <v>22.9609898260773</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.712019480010055</v>
+        <v>12.37529743785827</v>
       </c>
       <c r="E6">
-        <v>9.566266619117556</v>
+        <v>16.89037716518057</v>
       </c>
       <c r="F6">
-        <v>62.16843888463188</v>
+        <v>52.00081619505546</v>
       </c>
       <c r="G6">
-        <v>3.82126688802735</v>
+        <v>2.08741720170442</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.999376780320429</v>
+        <v>8.726513056782087</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>18.4983283451065</v>
+        <v>16.64002787465703</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.15005328064028</v>
+        <v>13.84163843086015</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.28314365340444</v>
+        <v>23.42039333038995</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.807714789446374</v>
+        <v>12.73180956770413</v>
       </c>
       <c r="E7">
-        <v>9.729716289842777</v>
+        <v>17.34335246182936</v>
       </c>
       <c r="F7">
-        <v>62.24221939735099</v>
+        <v>52.85346697514721</v>
       </c>
       <c r="G7">
-        <v>3.818834563237241</v>
+        <v>2.080044573354092</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.050442387460691</v>
+        <v>8.886168654843415</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>18.55018363626053</v>
+        <v>16.99622751109366</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.12149377622137</v>
+        <v>13.72259721208459</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.59171723479226</v>
+        <v>25.41936825736337</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.226653509386882</v>
+        <v>14.25826629150765</v>
       </c>
       <c r="E8">
-        <v>10.58865028963367</v>
+        <v>19.27815511399425</v>
       </c>
       <c r="F8">
-        <v>62.61405337404843</v>
+        <v>56.70594047953195</v>
       </c>
       <c r="G8">
-        <v>3.80861811514685</v>
+        <v>2.047594002720921</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.269662882051973</v>
+        <v>9.577731873887057</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.78973893460699</v>
+        <v>18.54677605473562</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.00032553572586</v>
+        <v>13.19560150277346</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.24671316856629</v>
+        <v>29.33432780687602</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.02733236418452</v>
+        <v>17.13360198065058</v>
       </c>
       <c r="E9">
-        <v>12.12274626110275</v>
+        <v>22.90100669120856</v>
       </c>
       <c r="F9">
-        <v>63.5081849059318</v>
+        <v>64.67566068763213</v>
       </c>
       <c r="G9">
-        <v>3.790418456540242</v>
+        <v>1.982624248336932</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.675990751000469</v>
+        <v>10.90479752772449</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.29525599399884</v>
+        <v>22.03075165075371</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.77995346739295</v>
+        <v>12.13465724626348</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.75486008365623</v>
+        <v>32.44384515024004</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.59601620232753</v>
+        <v>19.24225054742881</v>
       </c>
       <c r="E10">
-        <v>13.13689848105807</v>
+        <v>25.53944171044501</v>
       </c>
       <c r="F10">
-        <v>64.26380895169179</v>
+        <v>70.98031878212417</v>
       </c>
       <c r="G10">
-        <v>3.778143841300367</v>
+        <v>1.931857632550287</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.958900769339229</v>
+        <v>11.889524753429</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.68574797920347</v>
+        <v>24.56222599183268</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.62833688780823</v>
+        <v>11.31037673297198</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.99108857657904</v>
+        <v>33.86527358782175</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.84925485393607</v>
+        <v>20.22415533742813</v>
       </c>
       <c r="E11">
-        <v>13.57384753372484</v>
+        <v>26.76281280986095</v>
       </c>
       <c r="F11">
-        <v>64.62843359293969</v>
+        <v>74.16609546027499</v>
       </c>
       <c r="G11">
-        <v>3.77279318462552</v>
+        <v>1.907341280494238</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.083977006850514</v>
+        <v>12.34982840973642</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>19.86693168091395</v>
+        <v>25.72434210454123</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.56154941862882</v>
+        <v>10.9164525567211</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.08120311697694</v>
+        <v>34.40738066728412</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.94427813529611</v>
+        <v>20.60225583361341</v>
       </c>
       <c r="E12">
-        <v>13.73581326783227</v>
+        <v>27.23303009424014</v>
       </c>
       <c r="F12">
-        <v>64.76945205565291</v>
+        <v>75.40168895729556</v>
       </c>
       <c r="G12">
-        <v>3.770800175636073</v>
+        <v>1.897755258837646</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.130801579346032</v>
+        <v>12.52726787482514</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>19.93599910554344</v>
+        <v>26.16880303124563</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.53656902484551</v>
+        <v>10.76342415923137</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.06176709428535</v>
+        <v>34.29039805070441</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.92385327077542</v>
+        <v>20.52048368971525</v>
       </c>
       <c r="E13">
-        <v>13.70108640264661</v>
+        <v>27.13137598625302</v>
       </c>
       <c r="F13">
-        <v>64.73895134832723</v>
+        <v>75.13409169898534</v>
       </c>
       <c r="G13">
-        <v>3.771227936289023</v>
+        <v>1.899835237155143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.120741322488104</v>
+        <v>12.48888537944114</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>19.92110471635336</v>
+        <v>26.07282567394321</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.54193524200424</v>
+        <v>10.79657598603916</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.99848952603993</v>
+        <v>33.90977520098803</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.85709043193612</v>
+        <v>20.25511419395104</v>
       </c>
       <c r="E14">
-        <v>13.5872425759343</v>
+        <v>26.8013320738081</v>
       </c>
       <c r="F14">
-        <v>64.63997665436847</v>
+        <v>74.26709593690298</v>
       </c>
       <c r="G14">
-        <v>3.7726285558755</v>
+        <v>1.906559399069339</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.087840196587072</v>
+        <v>12.36435369201283</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>19.87260504297178</v>
+        <v>25.7607992364927</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.55948806213614</v>
+        <v>10.90394819186124</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.95981406952948</v>
+        <v>33.67723893292364</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.81608018946176</v>
+        <v>20.09349620382903</v>
       </c>
       <c r="E15">
-        <v>13.51705483610121</v>
+        <v>26.60021031060719</v>
       </c>
       <c r="F15">
-        <v>64.57973315557265</v>
+        <v>73.74018029013327</v>
       </c>
       <c r="G15">
-        <v>3.77349078474767</v>
+        <v>1.910635184427382</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.067616582372548</v>
+        <v>12.28853302452099</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>19.84295554294293</v>
+        <v>25.57035216693372</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.57028001414993</v>
+        <v>10.96917339685035</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.73951812429666</v>
+        <v>32.35130764412577</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.57934887592401</v>
+        <v>19.17876743473596</v>
       </c>
       <c r="E16">
-        <v>13.10785279466644</v>
+        <v>25.4602341261826</v>
       </c>
       <c r="F16">
-        <v>64.24039515734636</v>
+        <v>70.77562517509836</v>
       </c>
       <c r="G16">
-        <v>3.778498180159712</v>
+        <v>1.933423735073666</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.950652272974672</v>
+        <v>11.85979438383016</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.67397405212906</v>
+        <v>24.48671130044513</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.63274525398418</v>
+        <v>11.33565159016841</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.60562329827285</v>
+        <v>31.54134141614174</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.43265798456819</v>
+        <v>18.625206489322</v>
       </c>
       <c r="E17">
-        <v>12.85057927697322</v>
+        <v>24.76897050459449</v>
       </c>
       <c r="F17">
-        <v>64.03753110768179</v>
+        <v>69.0831620167414</v>
       </c>
       <c r="G17">
-        <v>3.781629513144675</v>
+        <v>1.94698139103295</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.877957473028845</v>
+        <v>11.60073618409083</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>19.57118027600548</v>
+        <v>23.8263426732869</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.67162251132657</v>
+        <v>11.55493438535755</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.52909193994433</v>
+        <v>31.0758962463454</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.34777603717381</v>
+        <v>18.30871328729825</v>
       </c>
       <c r="E18">
-        <v>12.70030547092789</v>
+        <v>24.37327024406938</v>
       </c>
       <c r="F18">
-        <v>63.92281917104638</v>
+        <v>68.13550648297357</v>
       </c>
       <c r="G18">
-        <v>3.783452537538243</v>
+        <v>1.954653067688165</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.835805528742014</v>
+        <v>11.45278839932496</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>19.51239307415565</v>
+        <v>23.44728527403249</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.69418942700968</v>
+        <v>11.67936203639947</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.50326451186872</v>
+        <v>30.9183087738108</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.31895185776544</v>
+        <v>18.20180723640271</v>
       </c>
       <c r="E19">
-        <v>12.64903057809555</v>
+        <v>24.23953059905135</v>
       </c>
       <c r="F19">
-        <v>63.88431978206675</v>
+        <v>67.81683037457815</v>
       </c>
       <c r="G19">
-        <v>3.78407356544274</v>
+        <v>1.957231248819551</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.821475826249223</v>
+        <v>11.40284458139076</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>19.49254823574639</v>
+        <v>23.31900491127441</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.70186563794232</v>
+        <v>11.7212276674377</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.61982730601824</v>
+        <v>31.62750262487509</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.44832685292966</v>
+        <v>18.68391926552259</v>
       </c>
       <c r="E20">
-        <v>12.87820413375111</v>
+        <v>24.84233875768865</v>
       </c>
       <c r="F20">
-        <v>64.05892285210292</v>
+        <v>69.25963683872564</v>
       </c>
       <c r="G20">
-        <v>3.78129390672314</v>
+        <v>1.945551815836716</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.885731266539215</v>
+        <v>11.62819608300843</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>19.58208834725216</v>
+        <v>23.89654316813413</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.66746269183955</v>
+        <v>11.53177401494763</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.01705832501455</v>
+        <v>34.02144004747927</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.87672462818398</v>
+        <v>20.33285880784107</v>
       </c>
       <c r="E21">
-        <v>13.62077608958651</v>
+        <v>26.89804845633378</v>
       </c>
       <c r="F21">
-        <v>64.66896856328864</v>
+        <v>74.52086740937747</v>
       </c>
       <c r="G21">
-        <v>3.772216262609769</v>
+        <v>1.90459353935289</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.097518824468111</v>
+        <v>12.40083274710046</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>19.88683859065893</v>
+        <v>25.85230065674161</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.55432397212291</v>
+        <v>10.87252628711206</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.28048599202808</v>
+        <v>35.61080577255651</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.15158717344568</v>
+        <v>21.44962194227847</v>
       </c>
       <c r="E22">
-        <v>14.08571092005673</v>
+        <v>28.28513495593547</v>
       </c>
       <c r="F22">
-        <v>65.08479034446918</v>
+        <v>78.18555363890772</v>
       </c>
       <c r="G22">
-        <v>3.766476662024511</v>
+        <v>1.875982419619572</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.232784579693423</v>
+        <v>12.92521054861403</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.08865010889969</v>
+        <v>27.15848968346868</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.48218990408585</v>
+        <v>10.41828827263421</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.13956365318332</v>
+        <v>34.75895180872556</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.00538265773428</v>
+        <v>20.84862691375919</v>
       </c>
       <c r="E23">
-        <v>13.83942701862163</v>
+        <v>27.53917022324783</v>
       </c>
       <c r="F23">
-        <v>64.86131346540776</v>
+        <v>76.20911317101125</v>
       </c>
       <c r="G23">
-        <v>3.7695224384621</v>
+        <v>1.891465908554808</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.16088457900438</v>
+        <v>12.64293320119912</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>19.98071551658371</v>
+        <v>26.45747768489966</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.5205248698728</v>
+        <v>10.66336524428634</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.61340427794618</v>
+        <v>31.58854866831132</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.44124465579708</v>
+        <v>18.65736995635229</v>
       </c>
       <c r="E24">
-        <v>12.86572229957634</v>
+        <v>24.80916387385447</v>
       </c>
       <c r="F24">
-        <v>64.04924566794786</v>
+        <v>69.17981112166304</v>
       </c>
       <c r="G24">
-        <v>3.781445563406949</v>
+        <v>1.946198502543647</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.882217850461229</v>
+        <v>11.61577847761257</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>19.57715583768384</v>
+        <v>23.86480386237361</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.66934267360653</v>
+        <v>11.54224985072802</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.06452980080271</v>
+        <v>28.22397261296619</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.813713248835775</v>
+        <v>16.36251505804631</v>
       </c>
       <c r="E25">
-        <v>11.72759188349091</v>
+        <v>21.93229650036828</v>
       </c>
       <c r="F25">
-        <v>63.24879787576722</v>
+        <v>62.46230091968344</v>
       </c>
       <c r="G25">
-        <v>3.795147770689703</v>
+        <v>2.000534663089508</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.568726087353804</v>
+        <v>10.54664661065993</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.15494558358967</v>
+        <v>21.09382012440443</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.83774690282723</v>
+        <v>12.42708079252815</v>
       </c>
       <c r="O25">
         <v>0</v>
